--- a/model/Outputs/8. Fixed RE/No PV/Output Files/30/Output_20_36.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Output Files/30/Output_20_36.xlsx
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>484500.4019548785</v>
+        <v>1271293460.350105</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>271</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>271</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27141,25 +27141,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27174,7 +27174,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27183,7 +27183,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
